--- a/Base_de_donnée/Students/ExcelFiles/Student_GINF2.xlsx
+++ b/Base_de_donnée/Students/ExcelFiles/Student_GINF2.xlsx
@@ -66,7 +66,7 @@
     <t>0669255705</t>
   </si>
   <si>
-    <t xml:space="preserve">AL ACHKAR.BADR@etu.uae.ac.ma</t>
+    <t>ALACHKAR.BADR@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>JFVHI0B</t>
@@ -141,7 +141,7 @@
     <t>0658103754</t>
   </si>
   <si>
-    <t xml:space="preserve">BEN TARKI.NOUHAILA@etu.uae.ac.ma</t>
+    <t>BENTARKI.NOUHAILA@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>N05RC58</t>
@@ -186,7 +186,7 @@
     <t>0682669528</t>
   </si>
   <si>
-    <t xml:space="preserve">BOUGUEDDACH.MOHAMED OUSSAMA@etu.uae.ac.ma</t>
+    <t>BOUGUEDDACH.MOHAMEDOUSSAMA@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>51BPI8S</t>
@@ -276,7 +276,7 @@
     <t>0663797916</t>
   </si>
   <si>
-    <t xml:space="preserve">EL GHAZOUANI.NIEMA@etu.uae.ac.ma</t>
+    <t>ELGHAZOUANI.NIEMA@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>5JQZVMZ</t>
@@ -288,7 +288,7 @@
     <t>0617934568</t>
   </si>
   <si>
-    <t xml:space="preserve">EL HAOUSSI.AYOUB@etu.uae.ac.ma</t>
+    <t>ELHAOUSSI.AYOUB@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>RNUJDLO</t>
@@ -303,7 +303,7 @@
     <t>0677990493</t>
   </si>
   <si>
-    <t xml:space="preserve">EL HASSANI.SAAD@etu.uae.ac.ma</t>
+    <t>ELHASSANI.SAAD@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>0ZEJ2XS</t>
@@ -318,7 +318,7 @@
     <t>0633767282</t>
   </si>
   <si>
-    <t xml:space="preserve">EL HOUB.YOUNESSE@etu.uae.ac.ma</t>
+    <t>ELHOUB.YOUNESSE@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>WNC5W8F</t>
@@ -330,7 +330,7 @@
     <t>0654123489</t>
   </si>
   <si>
-    <t xml:space="preserve">EL KOUARI.SAAD@etu.uae.ac.ma</t>
+    <t>ELKOUARI.SAAD@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>6U9ZZEW</t>
@@ -345,7 +345,7 @@
     <t>0697130037</t>
   </si>
   <si>
-    <t xml:space="preserve">EL MAAKOUL.YASSINE@etu.uae.ac.ma</t>
+    <t>ELMAAKOUL.YASSINE@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>RENBAEE</t>
@@ -360,7 +360,7 @@
     <t>0648133105</t>
   </si>
   <si>
-    <t xml:space="preserve">EL MOUTTAKI.ADNAN@etu.uae.ac.ma</t>
+    <t>ELMOUTTAKI.ADNAN@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>US1ZO2I</t>
@@ -531,7 +531,7 @@
     <t>ZIYAD</t>
   </si>
   <si>
-    <t>066717368</t>
+    <t>0667173681</t>
   </si>
   <si>
     <t>KHETTAB.ZIYAD@etu.uae.ac.ma</t>
@@ -549,7 +549,7 @@
     <t>0639903513</t>
   </si>
   <si>
-    <t xml:space="preserve">KSSIRI.MOHAMED AKRAM@etu.uae.ac.ma</t>
+    <t>KSSIRI.MOHAMEDAKRAM@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>EV9J4CY</t>
@@ -564,7 +564,7 @@
     <t>0650679577</t>
   </si>
   <si>
-    <t xml:space="preserve">MAIROU.HAOUA AMAMATOU OUMAR@etu.uae.ac.ma</t>
+    <t>MAIROU.HAOUAAMAMATOUOUMAR@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>EAZSMOG</t>
@@ -609,7 +609,7 @@
     <t>0644209389</t>
   </si>
   <si>
-    <t xml:space="preserve">NGOSSANGA.BLEK GEDEON@etu.uae.ac.ma</t>
+    <t>NGOSSANGA.BLEKGEDEON@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>GRPJGQD</t>
@@ -681,7 +681,7 @@
     <t>0657995386</t>
   </si>
   <si>
-    <t xml:space="preserve">OULAD SINE.SALOUA@etu.uae.ac.ma</t>
+    <t>OULADSINE.SALOUA@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>O7KF6UG</t>
@@ -738,10 +738,10 @@
     <t xml:space="preserve">LOOKMAN OSSAM</t>
   </si>
   <si>
-    <t>067419735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANA.LOOKMAN OSSAM@etu.uae.ac.ma</t>
+    <t>0674197351</t>
+  </si>
+  <si>
+    <t>SANA.LOOKMANOSSAM@etu.uae.ac.ma</t>
   </si>
   <si>
     <t>CXPNV0W</t>
@@ -778,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -789,6 +789,12 @@
       <name val="Arial"/>
       <color theme="1"/>
       <sz val="10.000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11.000000"/>
+      <u/>
     </font>
   </fonts>
   <fills count="2">
@@ -811,10 +817,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,7 +1330,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A31" workbookViewId="0" zoomScale="100">
       <selection activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1405,7 +1412,7 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1520,7 +1527,7 @@
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1589,7 +1596,7 @@
       <c r="F11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1603,7 +1610,7 @@
       <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>36790</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1626,7 +1633,7 @@
       <c r="C13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>36815</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1649,7 +1656,7 @@
       <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>36827</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1672,7 +1679,7 @@
       <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>36893</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1695,7 +1702,7 @@
       <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>36945</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1718,7 +1725,7 @@
       <c r="C17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>36994</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1727,7 +1734,7 @@
       <c r="F17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1741,7 +1748,7 @@
       <c r="C18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>37025</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1750,7 +1757,7 @@
       <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1764,7 +1771,7 @@
       <c r="C19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>37043</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1773,7 +1780,7 @@
       <c r="F19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1787,7 +1794,7 @@
       <c r="C20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>37093</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1796,7 +1803,7 @@
       <c r="F20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1810,7 +1817,7 @@
       <c r="C21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>37105</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1819,7 +1826,7 @@
       <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1833,7 +1840,7 @@
       <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>37131</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1842,7 +1849,7 @@
       <c r="F22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1856,7 +1863,7 @@
       <c r="C23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>37134</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1865,7 +1872,7 @@
       <c r="F23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1879,7 +1886,7 @@
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>37166</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1902,7 +1909,7 @@
       <c r="C25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>37172</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1925,7 +1932,7 @@
       <c r="C26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>37187</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1948,7 +1955,7 @@
       <c r="C27" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>36242</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1971,7 +1978,7 @@
       <c r="C28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>36257</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1994,7 +2001,7 @@
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>36286</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2017,7 +2024,7 @@
       <c r="C30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>36289</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2040,7 +2047,7 @@
       <c r="C31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>36322</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2063,7 +2070,7 @@
       <c r="C32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>36341</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2086,7 +2093,7 @@
       <c r="C33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>36352</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2109,7 +2116,7 @@
       <c r="C34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>36379</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2132,7 +2139,7 @@
       <c r="C35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>36481</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2155,7 +2162,7 @@
       <c r="C36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>36491</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2164,7 +2171,7 @@
       <c r="F36" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="3" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2178,7 +2185,7 @@
       <c r="C37" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>36569</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2187,7 +2194,7 @@
       <c r="F37" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2201,7 +2208,7 @@
       <c r="C38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>36605</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2224,7 +2231,7 @@
       <c r="C39" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>36615</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2247,7 +2254,7 @@
       <c r="C40" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>36662</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2256,7 +2263,7 @@
       <c r="F40" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="3" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2270,7 +2277,7 @@
       <c r="C41" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>36705</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -2293,7 +2300,7 @@
       <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <v>36774</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -2316,7 +2323,7 @@
       <c r="C43" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>36792</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2339,7 +2346,7 @@
       <c r="C44" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>36807</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2362,7 +2369,7 @@
       <c r="C45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>36933</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -2371,7 +2378,7 @@
       <c r="F45" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2385,7 +2392,7 @@
       <c r="C46" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>36940</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -2408,7 +2415,7 @@
       <c r="C47" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <v>37036</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2431,7 +2438,7 @@
       <c r="C48" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>37083</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2454,7 +2461,7 @@
       <c r="C49" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <v>37176</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2463,7 +2470,7 @@
       <c r="F49" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="3" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2477,7 +2484,7 @@
       <c r="C50" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <v>37229</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2500,7 +2507,7 @@
       <c r="C51" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>37253</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2514,9 +2521,26 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G3"/>
+    <hyperlink r:id="rId2" ref="G8"/>
+    <hyperlink r:id="rId3" ref="G11"/>
+    <hyperlink r:id="rId4" ref="G17"/>
+    <hyperlink r:id="rId5" ref="G18"/>
+    <hyperlink r:id="rId6" ref="G19"/>
+    <hyperlink r:id="rId7" ref="G20"/>
+    <hyperlink r:id="rId8" ref="G21"/>
+    <hyperlink r:id="rId9" ref="G22"/>
+    <hyperlink r:id="rId10" ref="G23"/>
+    <hyperlink r:id="rId11" ref="G36"/>
+    <hyperlink r:id="rId12" ref="G37"/>
+    <hyperlink r:id="rId13" ref="G40"/>
+    <hyperlink r:id="rId14" ref="G45"/>
+    <hyperlink r:id="rId15" ref="G49"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Base_de_donnée/Students/ExcelFiles/Student_GINF2.xlsx
+++ b/Base_de_donnée/Students/ExcelFiles/Student_GINF2.xlsx
@@ -39,12 +39,12 @@
     <t>VKAG1DP</t>
   </si>
   <si>
+    <t>MOHAMED</t>
+  </si>
+  <si>
     <t>AGNAOU</t>
   </si>
   <si>
-    <t>MOHAMED</t>
-  </si>
-  <si>
     <t>GINF2</t>
   </si>
   <si>
@@ -57,12 +57,12 @@
     <t>D54TZFP</t>
   </si>
   <si>
+    <t>BADR</t>
+  </si>
+  <si>
     <t xml:space="preserve">AL ACHKAR</t>
   </si>
   <si>
-    <t>BADR</t>
-  </si>
-  <si>
     <t>0669255705</t>
   </si>
   <si>
@@ -72,12 +72,12 @@
     <t>JFVHI0B</t>
   </si>
   <si>
+    <t>ASMAE</t>
+  </si>
+  <si>
     <t>AMARA</t>
   </si>
   <si>
-    <t>ASMAE</t>
-  </si>
-  <si>
     <t>0668982700</t>
   </si>
   <si>
@@ -87,12 +87,12 @@
     <t>V40N4FJ</t>
   </si>
   <si>
+    <t>SAMI</t>
+  </si>
+  <si>
     <t>AOUAD</t>
   </si>
   <si>
-    <t>SAMI</t>
-  </si>
-  <si>
     <t>0689684558</t>
   </si>
   <si>
@@ -102,12 +102,12 @@
     <t>51T9Z6O</t>
   </si>
   <si>
+    <t>RIHAB</t>
+  </si>
+  <si>
     <t>BAHID</t>
   </si>
   <si>
-    <t>RIHAB</t>
-  </si>
-  <si>
     <t>0677215280</t>
   </si>
   <si>
@@ -117,12 +117,12 @@
     <t>XCR2UKS</t>
   </si>
   <si>
+    <t>CHEICKNA</t>
+  </si>
+  <si>
     <t>BARRO</t>
   </si>
   <si>
-    <t>CHEICKNA</t>
-  </si>
-  <si>
     <t>0661247344</t>
   </si>
   <si>
@@ -132,12 +132,12 @@
     <t>9BOJ3LK</t>
   </si>
   <si>
+    <t>NOUHAILA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEN TARKI</t>
   </si>
   <si>
-    <t>NOUHAILA</t>
-  </si>
-  <si>
     <t>0658103754</t>
   </si>
   <si>
@@ -147,12 +147,12 @@
     <t>N05RC58</t>
   </si>
   <si>
+    <t>SALAHEDDINE</t>
+  </si>
+  <si>
     <t>BENKHANOUS</t>
   </si>
   <si>
-    <t>SALAHEDDINE</t>
-  </si>
-  <si>
     <t>0616129017</t>
   </si>
   <si>
@@ -162,12 +162,12 @@
     <t>FOIMNZT</t>
   </si>
   <si>
+    <t>CHAYMAE</t>
+  </si>
+  <si>
     <t>BENTALEB</t>
   </si>
   <si>
-    <t>CHAYMAE</t>
-  </si>
-  <si>
     <t>0673290079</t>
   </si>
   <si>
@@ -177,12 +177,12 @@
     <t>XRZYRAB</t>
   </si>
   <si>
+    <t xml:space="preserve">MOHAMED OUSSAMA</t>
+  </si>
+  <si>
     <t>BOUGUEDDACH</t>
   </si>
   <si>
-    <t xml:space="preserve">MOHAMED OUSSAMA</t>
-  </si>
-  <si>
     <t>0682669528</t>
   </si>
   <si>
@@ -192,12 +192,12 @@
     <t>51BPI8S</t>
   </si>
   <si>
+    <t>ALI</t>
+  </si>
+  <si>
     <t>BOUHCAIN</t>
   </si>
   <si>
-    <t>ALI</t>
-  </si>
-  <si>
     <t>0652670336</t>
   </si>
   <si>
@@ -207,12 +207,12 @@
     <t>T5ASDVD</t>
   </si>
   <si>
+    <t>AISSAME</t>
+  </si>
+  <si>
     <t>BOUKHALLAD</t>
   </si>
   <si>
-    <t>AISSAME</t>
-  </si>
-  <si>
     <t>0652031596</t>
   </si>
   <si>
@@ -222,12 +222,12 @@
     <t>3D7PD44</t>
   </si>
   <si>
+    <t>AYA</t>
+  </si>
+  <si>
     <t>CHIHAL</t>
   </si>
   <si>
-    <t>AYA</t>
-  </si>
-  <si>
     <t>0654087332</t>
   </si>
   <si>
@@ -237,12 +237,12 @@
     <t>IIE7W0B</t>
   </si>
   <si>
+    <t>AYOUB</t>
+  </si>
+  <si>
     <t>DKHISSI</t>
   </si>
   <si>
-    <t>AYOUB</t>
-  </si>
-  <si>
     <t>0647542174</t>
   </si>
   <si>
@@ -252,12 +252,12 @@
     <t>M50ZNFM</t>
   </si>
   <si>
+    <t>BILAL</t>
+  </si>
+  <si>
     <t>DRAOUI</t>
   </si>
   <si>
-    <t>BILAL</t>
-  </si>
-  <si>
     <t>0642252592</t>
   </si>
   <si>
@@ -267,12 +267,12 @@
     <t>7L4MZF1</t>
   </si>
   <si>
+    <t>NIEMA</t>
+  </si>
+  <si>
     <t xml:space="preserve">EL GHAZOUANI</t>
   </si>
   <si>
-    <t>NIEMA</t>
-  </si>
-  <si>
     <t>0663797916</t>
   </si>
   <si>
@@ -294,12 +294,12 @@
     <t>RNUJDLO</t>
   </si>
   <si>
+    <t>SAAD</t>
+  </si>
+  <si>
     <t xml:space="preserve">EL HASSANI</t>
   </si>
   <si>
-    <t>SAAD</t>
-  </si>
-  <si>
     <t>0677990493</t>
   </si>
   <si>
@@ -309,12 +309,12 @@
     <t>0ZEJ2XS</t>
   </si>
   <si>
+    <t>YOUNESSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">EL HOUB</t>
   </si>
   <si>
-    <t>YOUNESSE</t>
-  </si>
-  <si>
     <t>0633767282</t>
   </si>
   <si>
@@ -336,12 +336,12 @@
     <t>6U9ZZEW</t>
   </si>
   <si>
+    <t>YASSINE</t>
+  </si>
+  <si>
     <t xml:space="preserve">EL MAAKOUL</t>
   </si>
   <si>
-    <t>YASSINE</t>
-  </si>
-  <si>
     <t>0697130037</t>
   </si>
   <si>
@@ -351,12 +351,12 @@
     <t>RENBAEE</t>
   </si>
   <si>
+    <t>ADNAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">EL MOUTTAKI</t>
   </si>
   <si>
-    <t>ADNAN</t>
-  </si>
-  <si>
     <t>0648133105</t>
   </si>
   <si>
@@ -378,12 +378,12 @@
     <t>8NYVE4L</t>
   </si>
   <si>
+    <t>AMR</t>
+  </si>
+  <si>
     <t>EN-NIARI</t>
   </si>
   <si>
-    <t>AMR</t>
-  </si>
-  <si>
     <t>0622631456</t>
   </si>
   <si>
@@ -393,12 +393,12 @@
     <t>OFJ54Z1</t>
   </si>
   <si>
+    <t>RAJA</t>
+  </si>
+  <si>
     <t>ES-SAHRI</t>
   </si>
   <si>
-    <t>RAJA</t>
-  </si>
-  <si>
     <t>0659103001</t>
   </si>
   <si>
@@ -408,12 +408,12 @@
     <t>FJ3DOCB</t>
   </si>
   <si>
+    <t>AKRAM</t>
+  </si>
+  <si>
     <t>FARES</t>
   </si>
   <si>
-    <t>AKRAM</t>
-  </si>
-  <si>
     <t>0672616949</t>
   </si>
   <si>
@@ -423,12 +423,12 @@
     <t>V4WDES9</t>
   </si>
   <si>
+    <t>CHAIMAE</t>
+  </si>
+  <si>
     <t>GHAZI</t>
   </si>
   <si>
-    <t>CHAIMAE</t>
-  </si>
-  <si>
     <t>0618878283</t>
   </si>
   <si>
@@ -450,12 +450,12 @@
     <t>6UV3H7L</t>
   </si>
   <si>
+    <t>YOUSSEF</t>
+  </si>
+  <si>
     <t>HASSISS</t>
   </si>
   <si>
-    <t>YOUSSEF</t>
-  </si>
-  <si>
     <t>0691123522</t>
   </si>
   <si>
@@ -465,12 +465,12 @@
     <t>BVEW04H</t>
   </si>
   <si>
+    <t>NAILA</t>
+  </si>
+  <si>
     <t>HSSASSA</t>
   </si>
   <si>
-    <t>NAILA</t>
-  </si>
-  <si>
     <t>0682331131</t>
   </si>
   <si>
@@ -480,12 +480,12 @@
     <t>35OQXJB</t>
   </si>
   <si>
+    <t>AMINE</t>
+  </si>
+  <si>
     <t>KAMOUN</t>
   </si>
   <si>
-    <t>AMINE</t>
-  </si>
-  <si>
     <t>0640113906</t>
   </si>
   <si>
@@ -495,12 +495,12 @@
     <t>5TAPA6P</t>
   </si>
   <si>
+    <t>ABOUBAKR</t>
+  </si>
+  <si>
     <t>KASSRIOUI</t>
   </si>
   <si>
-    <t>ABOUBAKR</t>
-  </si>
-  <si>
     <t>0684984797</t>
   </si>
   <si>
@@ -510,12 +510,12 @@
     <t>II3S9KM</t>
   </si>
   <si>
+    <t>MOUAAD</t>
+  </si>
+  <si>
     <t>KHARCHICH</t>
   </si>
   <si>
-    <t>MOUAAD</t>
-  </si>
-  <si>
     <t>0686524477</t>
   </si>
   <si>
@@ -525,12 +525,12 @@
     <t>AEC50J8</t>
   </si>
   <si>
+    <t>ZIYAD</t>
+  </si>
+  <si>
     <t>KHETTAB</t>
   </si>
   <si>
-    <t>ZIYAD</t>
-  </si>
-  <si>
     <t>0667173681</t>
   </si>
   <si>
@@ -540,12 +540,12 @@
     <t>2TU7OKU</t>
   </si>
   <si>
+    <t xml:space="preserve">MOHAMED AKRAM</t>
+  </si>
+  <si>
     <t>KSSIRI</t>
   </si>
   <si>
-    <t xml:space="preserve">MOHAMED AKRAM</t>
-  </si>
-  <si>
     <t>0639903513</t>
   </si>
   <si>
@@ -555,12 +555,12 @@
     <t>EV9J4CY</t>
   </si>
   <si>
+    <t xml:space="preserve">HAOUA AMAMATOU OUMAR</t>
+  </si>
+  <si>
     <t>MAIROU</t>
   </si>
   <si>
-    <t xml:space="preserve">HAOUA AMAMATOU OUMAR</t>
-  </si>
-  <si>
     <t>0650679577</t>
   </si>
   <si>
@@ -570,12 +570,12 @@
     <t>EAZSMOG</t>
   </si>
   <si>
+    <t>AMINA</t>
+  </si>
+  <si>
     <t>MALLOUK</t>
   </si>
   <si>
-    <t>AMINA</t>
-  </si>
-  <si>
     <t>0674800011</t>
   </si>
   <si>
@@ -585,12 +585,12 @@
     <t>J5I6S37</t>
   </si>
   <si>
+    <t>HANANE</t>
+  </si>
+  <si>
     <t>MERROUN</t>
   </si>
   <si>
-    <t>HANANE</t>
-  </si>
-  <si>
     <t>0690477986</t>
   </si>
   <si>
@@ -600,12 +600,12 @@
     <t>G6EPI90</t>
   </si>
   <si>
+    <t xml:space="preserve">BLEK GEDEON</t>
+  </si>
+  <si>
     <t>NGOSSANGA</t>
   </si>
   <si>
-    <t xml:space="preserve">BLEK GEDEON</t>
-  </si>
-  <si>
     <t>0644209389</t>
   </si>
   <si>
@@ -615,12 +615,12 @@
     <t>GRPJGQD</t>
   </si>
   <si>
+    <t>WALID</t>
+  </si>
+  <si>
     <t>OMARI</t>
   </si>
   <si>
-    <t>WALID</t>
-  </si>
-  <si>
     <t>0631626400</t>
   </si>
   <si>
@@ -642,12 +642,12 @@
     <t>WJP9G5Y</t>
   </si>
   <si>
+    <t>MOUAD</t>
+  </si>
+  <si>
     <t>OUAKIL</t>
   </si>
   <si>
-    <t>MOUAD</t>
-  </si>
-  <si>
     <t>0626986576</t>
   </si>
   <si>
@@ -657,12 +657,12 @@
     <t>QXF1TLF</t>
   </si>
   <si>
+    <t>MICHEL</t>
+  </si>
+  <si>
     <t>OUANGRE</t>
   </si>
   <si>
-    <t>MICHEL</t>
-  </si>
-  <si>
     <t>0675792749</t>
   </si>
   <si>
@@ -672,12 +672,12 @@
     <t>CPE0IXF</t>
   </si>
   <si>
+    <t>SALOUA</t>
+  </si>
+  <si>
     <t xml:space="preserve">OULAD SINE</t>
   </si>
   <si>
-    <t>SALOUA</t>
-  </si>
-  <si>
     <t>0657995386</t>
   </si>
   <si>
@@ -687,12 +687,12 @@
     <t>O7KF6UG</t>
   </si>
   <si>
+    <t>HAFSSA</t>
+  </si>
+  <si>
     <t>RABAH</t>
   </si>
   <si>
-    <t>HAFSSA</t>
-  </si>
-  <si>
     <t>0619426507</t>
   </si>
   <si>
@@ -702,12 +702,12 @@
     <t>IAZ7PWP</t>
   </si>
   <si>
+    <t>AYMAN</t>
+  </si>
+  <si>
     <t>RAMY</t>
   </si>
   <si>
-    <t>AYMAN</t>
-  </si>
-  <si>
     <t>0680125701</t>
   </si>
   <si>
@@ -717,12 +717,12 @@
     <t>0CTUJSW</t>
   </si>
   <si>
+    <t>CHAIMAA</t>
+  </si>
+  <si>
     <t>SAIDI</t>
   </si>
   <si>
-    <t>CHAIMAA</t>
-  </si>
-  <si>
     <t>0621853886</t>
   </si>
   <si>
@@ -732,12 +732,12 @@
     <t>6T5AIZU</t>
   </si>
   <si>
+    <t xml:space="preserve">LOOKMAN OSSAM</t>
+  </si>
+  <si>
     <t>SANA</t>
   </si>
   <si>
-    <t xml:space="preserve">LOOKMAN OSSAM</t>
-  </si>
-  <si>
     <t>0674197351</t>
   </si>
   <si>
@@ -747,12 +747,12 @@
     <t>CXPNV0W</t>
   </si>
   <si>
+    <t>HOUDA</t>
+  </si>
+  <si>
     <t>TAALI</t>
   </si>
   <si>
-    <t>HOUDA</t>
-  </si>
-  <si>
     <t>0661429765</t>
   </si>
   <si>
@@ -762,10 +762,10 @@
     <t>NV221IM</t>
   </si>
   <si>
+    <t>RABIA</t>
+  </si>
+  <si>
     <t>ZENAGUI</t>
-  </si>
-  <si>
-    <t>RABIA</t>
   </si>
   <si>
     <t>0670918050</t>
@@ -1743,10 +1743,10 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D18" s="4">
         <v>37025</v>
@@ -1812,10 +1812,10 @@
         <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D21" s="4">
         <v>37105</v>
@@ -1881,10 +1881,10 @@
         <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D24" s="4">
         <v>37166</v>
@@ -1996,10 +1996,10 @@
         <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D29" s="4">
         <v>36286</v>
@@ -2295,10 +2295,10 @@
         <v>204</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D42" s="4">
         <v>36774</v>
